--- a/fc_auto/주간업무계획표.xlsx
+++ b/fc_auto/주간업무계획표.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="B2:B2"/>
+  <dimension ref="B2:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -427,6 +427,11 @@
           <t>담당자</t>
         </is>
       </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>yoondii</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/fc_auto/주간업무계획표.xlsx
+++ b/fc_auto/주간업무계획표.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="B2:C2"/>
+  <dimension ref="B2:C3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -433,6 +433,18 @@
         </is>
       </c>
     </row>
+    <row r="3">
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>시작일</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>2023-02-23</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
